--- a/Cities.xlsx
+++ b/Cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty\GIT_desktop\Sandbox_city_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4465925-A43B-4C75-BA22-99E25D6B9E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FA8C6A-CB84-489F-8538-4D6AE6CF495C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Kto</t>
   </si>
@@ -335,31 +335,34 @@
     <t>Zbieracz_5</t>
   </si>
   <si>
-    <t>Export_zioła</t>
-  </si>
-  <si>
-    <t>Export_żarcia</t>
-  </si>
-  <si>
-    <t>Export_architekt</t>
-  </si>
-  <si>
-    <t>Export_metale</t>
-  </si>
-  <si>
-    <t>Export_rozrywka</t>
-  </si>
-  <si>
-    <t>Export_inne</t>
-  </si>
-  <si>
-    <t>Export_ochrona</t>
-  </si>
-  <si>
-    <t>Export_drewno</t>
-  </si>
-  <si>
-    <t>Export_kamień</t>
+    <t>Export_Food</t>
+  </si>
+  <si>
+    <t>Export_Buildings</t>
+  </si>
+  <si>
+    <t>Export_Tools</t>
+  </si>
+  <si>
+    <t>Export_Tools_materials</t>
+  </si>
+  <si>
+    <t>Export_Other</t>
+  </si>
+  <si>
+    <t>Export_Safety</t>
+  </si>
+  <si>
+    <t>Export_Fun</t>
+  </si>
+  <si>
+    <t>Export_Wood</t>
+  </si>
+  <si>
+    <t>Export_Stone</t>
+  </si>
+  <si>
+    <t>Export_Herbs</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="8"/>
@@ -800,22 +807,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CR7"/>
+  <dimension ref="A1:CS25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="CI1" sqref="CI1"/>
+      <selection activeCell="CJ5" sqref="CJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="87" width="9" bestFit="1" customWidth="1"/>
-    <col min="88" max="91" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.21875" customWidth="1"/>
+    <col min="91" max="91" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="9" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="94" max="96" width="9" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="95" max="97" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,34 +1087,37 @@
         <v>22</v>
       </c>
       <c r="CJ1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="CR1" s="5" t="s">
-        <v>99</v>
+      <c r="CS1" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1374,28 +1386,31 @@
         <v>0</v>
       </c>
       <c r="CL2" s="8">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="8">
         <v>-75000</v>
       </c>
-      <c r="CM2" s="8">
+      <c r="CN2" s="8">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="8">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="8">
         <v>40000</v>
       </c>
-      <c r="CN2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="8">
-        <v>0</v>
-      </c>
       <c r="CQ2" s="8">
         <v>0</v>
       </c>
-      <c r="CR2" s="11">
+      <c r="CR2" s="8">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1664,28 +1679,31 @@
         <v>0</v>
       </c>
       <c r="CL3" s="8">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="8">
         <v>15000</v>
       </c>
-      <c r="CM3" s="8">
+      <c r="CN3" s="8">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="8">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="8">
         <v>-30000</v>
       </c>
-      <c r="CN3" s="8">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="8">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="8">
-        <v>0</v>
-      </c>
       <c r="CQ3" s="8">
         <v>0</v>
       </c>
-      <c r="CR3" s="7">
+      <c r="CR3" s="8">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -1971,11 +1989,14 @@
       <c r="CQ4" s="8">
         <v>0</v>
       </c>
-      <c r="CR4" s="11">
+      <c r="CR4" s="8">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -2261,11 +2282,14 @@
       <c r="CQ5" s="8">
         <v>0</v>
       </c>
-      <c r="CR5" s="11">
+      <c r="CR5" s="8">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -2534,12 +2558,14 @@
         <v>0</v>
       </c>
       <c r="CL6" s="8">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="8">
         <v>45000</v>
       </c>
-      <c r="CM6" s="8">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="7"/>
+      <c r="CN6" s="7">
+        <v>0</v>
+      </c>
       <c r="CO6" s="8">
         <v>5000</v>
       </c>
@@ -2549,11 +2575,14 @@
       <c r="CQ6" s="8">
         <v>0</v>
       </c>
-      <c r="CR6" s="11">
+      <c r="CR6" s="8">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2839,9 +2868,42 @@
       <c r="CQ7" s="15">
         <v>0</v>
       </c>
-      <c r="CR7" s="16">
-        <v>0</v>
-      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="CP16" s="2"/>
+    </row>
+    <row r="17" spans="94:94" x14ac:dyDescent="0.3">
+      <c r="CP17" s="2"/>
+    </row>
+    <row r="18" spans="94:94" x14ac:dyDescent="0.3">
+      <c r="CP18" s="2"/>
+    </row>
+    <row r="19" spans="94:94" x14ac:dyDescent="0.3">
+      <c r="CP19" s="4"/>
+    </row>
+    <row r="20" spans="94:94" x14ac:dyDescent="0.3">
+      <c r="CP20" s="4"/>
+    </row>
+    <row r="21" spans="94:94" x14ac:dyDescent="0.3">
+      <c r="CP21" s="4"/>
+    </row>
+    <row r="22" spans="94:94" x14ac:dyDescent="0.3">
+      <c r="CP22" s="4"/>
+    </row>
+    <row r="23" spans="94:94" x14ac:dyDescent="0.3">
+      <c r="CP23" s="4"/>
+    </row>
+    <row r="24" spans="94:94" x14ac:dyDescent="0.3">
+      <c r="CP24" s="4"/>
+    </row>
+    <row r="25" spans="94:94" x14ac:dyDescent="0.3">
+      <c r="CP25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Cities.xlsx
+++ b/Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty\GIT_desktop\Sandbox_city_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FA8C6A-CB84-489F-8538-4D6AE6CF495C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B6772B-27F1-4F45-A800-17C15443EF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Kto</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Export_Tools</t>
   </si>
   <si>
-    <t>Export_Tools_materials</t>
-  </si>
-  <si>
     <t>Export_Other</t>
   </si>
   <si>
@@ -363,6 +360,15 @@
   </si>
   <si>
     <t>Export_Herbs</t>
+  </si>
+  <si>
+    <t>Export_Materials</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nowe miasto</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -526,6 +532,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -809,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CF1" workbookViewId="0">
-      <selection activeCell="CJ5" sqref="CJ5"/>
+    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:CS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,335 +1103,335 @@
         <v>101</v>
       </c>
       <c r="CM1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CS1" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="CS1" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1886</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1185</v>
-      </c>
-      <c r="E2" s="8">
-        <v>701</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8">
-        <v>4</v>
-      </c>
-      <c r="J2" s="10">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8">
-        <v>15</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8">
-        <v>5</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="10">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0</v>
-      </c>
-      <c r="S2" s="8">
-        <v>1</v>
-      </c>
-      <c r="T2" s="10">
-        <v>0</v>
-      </c>
-      <c r="U2" s="8">
-        <v>120</v>
-      </c>
-      <c r="V2" s="8">
-        <v>0</v>
-      </c>
-      <c r="W2" s="8">
-        <v>15</v>
-      </c>
-      <c r="X2" s="8">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>15</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="8">
-        <v>3</v>
-      </c>
-      <c r="AM2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="9">
-        <v>2</v>
-      </c>
-      <c r="AP2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="8">
-        <v>3</v>
-      </c>
-      <c r="AW2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="8">
-        <v>12</v>
-      </c>
-      <c r="BB2" s="8">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="8">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="8">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="8">
-        <v>18</v>
-      </c>
-      <c r="BG2" s="8">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="8">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="9">
-        <v>5</v>
-      </c>
-      <c r="BJ2" s="8">
-        <v>5</v>
-      </c>
-      <c r="BK2" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="8">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="8">
-        <v>150</v>
-      </c>
-      <c r="BO2" s="8">
-        <v>12</v>
-      </c>
-      <c r="BP2" s="8">
-        <v>20</v>
-      </c>
-      <c r="BQ2" s="8">
-        <v>5</v>
-      </c>
-      <c r="BR2" s="8">
-        <v>60</v>
-      </c>
-      <c r="BS2" s="8">
-        <v>15</v>
-      </c>
-      <c r="BT2" s="8">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="8">
-        <v>50</v>
-      </c>
-      <c r="BV2" s="8">
-        <v>60</v>
-      </c>
-      <c r="BW2" s="8">
-        <v>15</v>
-      </c>
-      <c r="BX2" s="8">
-        <v>3</v>
-      </c>
-      <c r="BY2" s="8">
-        <v>1</v>
-      </c>
-      <c r="BZ2" s="8">
-        <v>3</v>
-      </c>
-      <c r="CA2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="8">
-        <v>3</v>
-      </c>
-      <c r="CC2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="8">
-        <v>1</v>
-      </c>
-      <c r="CE2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="8">
-        <v>3</v>
-      </c>
-      <c r="CI2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="8">
-        <v>30000</v>
-      </c>
-      <c r="CK2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="8">
-        <v>-75000</v>
-      </c>
-      <c r="CN2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="8">
-        <v>40000</v>
-      </c>
-      <c r="CQ2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="8">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="11">
+      <c r="A2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7">
-        <v>757</v>
+        <v>1886</v>
       </c>
       <c r="D3" s="8">
-        <v>298</v>
+        <v>1185</v>
       </c>
       <c r="E3" s="8">
-        <v>459</v>
+        <v>701</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -1433,16 +1440,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I3" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="10">
         <v>1</v>
       </c>
       <c r="K3" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L3" s="8">
         <v>0</v>
@@ -1457,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="8">
         <v>0</v>
@@ -1466,22 +1473,22 @@
         <v>0</v>
       </c>
       <c r="S3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="10">
         <v>0</v>
       </c>
       <c r="U3" s="8">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="V3" s="8">
         <v>0</v>
       </c>
       <c r="W3" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X3" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="10">
         <v>0</v>
@@ -1490,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="AA3" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="8">
         <v>3</v>
       </c>
       <c r="AC3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="10">
         <v>0</v>
@@ -1514,148 +1521,148 @@
         <v>0</v>
       </c>
       <c r="AI3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="9">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AW3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="8">
+        <v>12</v>
+      </c>
+      <c r="BB3" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="8">
+        <v>18</v>
+      </c>
+      <c r="BG3" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="9">
         <v>5</v>
       </c>
-      <c r="AK3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="8">
+      <c r="BJ3" s="8">
+        <v>5</v>
+      </c>
+      <c r="BK3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="8">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="8">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="8">
+        <v>150</v>
+      </c>
+      <c r="BO3" s="8">
+        <v>12</v>
+      </c>
+      <c r="BP3" s="8">
+        <v>20</v>
+      </c>
+      <c r="BQ3" s="8">
+        <v>5</v>
+      </c>
+      <c r="BR3" s="8">
+        <v>60</v>
+      </c>
+      <c r="BS3" s="8">
         <v>15</v>
       </c>
-      <c r="AU3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="8">
-        <v>4</v>
-      </c>
-      <c r="BB3" s="8">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="8">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="8">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="8">
-        <v>7</v>
-      </c>
-      <c r="BG3" s="8">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="8">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="9">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="8">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="8">
-        <v>7</v>
-      </c>
-      <c r="BL3" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="8">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="8">
+      <c r="BT3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="8">
+        <v>50</v>
+      </c>
+      <c r="BV3" s="8">
+        <v>60</v>
+      </c>
+      <c r="BW3" s="8">
         <v>15</v>
       </c>
-      <c r="BO3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BP3" s="8">
-        <v>10</v>
-      </c>
-      <c r="BQ3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BR3" s="8">
-        <v>40</v>
-      </c>
-      <c r="BS3" s="8">
-        <v>12</v>
-      </c>
-      <c r="BT3" s="8">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="8">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="8">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="8">
-        <v>0</v>
-      </c>
       <c r="BX3" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BY3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ3" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CA3" s="8">
         <v>0</v>
       </c>
       <c r="CB3" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CC3" s="8">
         <v>0</v>
       </c>
       <c r="CD3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE3" s="8">
         <v>0</v>
@@ -1667,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="CH3" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI3" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ3" s="8">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="CK3" s="8">
         <v>0</v>
@@ -1682,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="CM3" s="8">
-        <v>15000</v>
+        <v>-75000</v>
       </c>
       <c r="CN3" s="8">
         <v>0</v>
@@ -1691,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="CP3" s="8">
-        <v>-30000</v>
+        <v>40000</v>
       </c>
       <c r="CQ3" s="8">
         <v>0</v>
@@ -1699,25 +1706,25 @@
       <c r="CR3" s="8">
         <v>0</v>
       </c>
-      <c r="CS3" s="7">
+      <c r="CS3" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="7">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="D4" s="8">
-        <v>648</v>
+        <v>298</v>
       </c>
       <c r="E4" s="8">
-        <v>120</v>
+        <v>459</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
@@ -1729,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="8">
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M4" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="10">
         <v>0</v>
@@ -1759,112 +1766,112 @@
         <v>0</v>
       </c>
       <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <v>70</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>10</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="9">
         <v>5</v>
       </c>
-      <c r="T4" s="10">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0</v>
-      </c>
-      <c r="X4" s="8">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8">
+      <c r="AK4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="8">
+        <v>15</v>
+      </c>
+      <c r="AU4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="8">
         <v>4</v>
       </c>
-      <c r="AB4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>4</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="8">
-        <v>0</v>
-      </c>
       <c r="BB4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="8">
         <v>0</v>
@@ -1876,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="BF4" s="8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BG4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="8">
         <v>0</v>
@@ -1891,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL4" s="8">
         <v>0</v>
@@ -1900,348 +1907,348 @@
         <v>0</v>
       </c>
       <c r="BN4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BO4" s="8">
         <v>2</v>
       </c>
       <c r="BP4" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BQ4" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR4" s="8">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="BS4" s="8">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="BT4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="8">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="8">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="8">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="8">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="8">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="8">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="8">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="8">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="8">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="8">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="8">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="8">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="8">
+        <v>1</v>
+      </c>
+      <c r="CI4" s="8">
         <v>5</v>
       </c>
-      <c r="BU4" s="8">
-        <v>20</v>
-      </c>
-      <c r="BV4" s="8">
-        <v>55</v>
-      </c>
-      <c r="BW4" s="8">
-        <v>6</v>
-      </c>
-      <c r="BX4" s="8">
-        <v>1</v>
-      </c>
-      <c r="BY4" s="8">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="8">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="8">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="8">
-        <v>4</v>
-      </c>
-      <c r="CC4" s="8">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="8">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="8">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="8">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="8">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="8">
-        <v>1</v>
-      </c>
-      <c r="CI4" s="8">
-        <v>0</v>
-      </c>
       <c r="CJ4" s="8">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="CK4" s="8">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="CL4" s="8">
         <v>0</v>
       </c>
       <c r="CM4" s="8">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="CN4" s="8">
         <v>0</v>
       </c>
       <c r="CO4" s="8">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="8">
         <v>-30000</v>
       </c>
-      <c r="CP4" s="8">
-        <v>0</v>
-      </c>
       <c r="CQ4" s="8">
         <v>0</v>
       </c>
       <c r="CR4" s="8">
         <v>0</v>
       </c>
-      <c r="CS4" s="11">
+      <c r="CS4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7">
-        <v>298</v>
+        <v>768</v>
       </c>
       <c r="D5" s="8">
-        <v>198</v>
+        <v>648</v>
       </c>
       <c r="E5" s="8">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
       </c>
       <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>20</v>
+      </c>
+      <c r="M5" s="8">
+        <v>6</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
         <v>5</v>
       </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>7</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8">
+      <c r="T5" s="10">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="8">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="8">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="8">
+        <v>6</v>
+      </c>
+      <c r="BL5" s="8">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="8">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="8">
+        <v>10</v>
+      </c>
+      <c r="BO5" s="8">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="8">
         <v>3</v>
       </c>
-      <c r="S5" s="8">
-        <v>1</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
-        <v>0</v>
-      </c>
-      <c r="W5" s="8">
-        <v>7</v>
-      </c>
-      <c r="X5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="9">
-        <v>10</v>
-      </c>
-      <c r="AK5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="8">
-        <v>2</v>
-      </c>
-      <c r="BB5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="8">
-        <v>2</v>
-      </c>
-      <c r="BG5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="8">
+      <c r="BQ5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="8">
+        <v>150</v>
+      </c>
+      <c r="BS5" s="8">
+        <v>50</v>
+      </c>
+      <c r="BT5" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU5" s="8">
+        <v>20</v>
+      </c>
+      <c r="BV5" s="8">
+        <v>55</v>
+      </c>
+      <c r="BW5" s="8">
+        <v>6</v>
+      </c>
+      <c r="BX5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="8">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="8">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="8">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="8">
         <v>4</v>
       </c>
-      <c r="BM5" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="8">
-        <v>5</v>
-      </c>
-      <c r="BS5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="8">
-        <v>1</v>
-      </c>
-      <c r="BY5" s="8">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="8">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="8">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="8">
-        <v>5</v>
-      </c>
       <c r="CC5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE5" s="8">
         <v>0</v>
@@ -2259,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="CJ5" s="8">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="CK5" s="8">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="CL5" s="8">
         <v>0</v>
@@ -2274,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="CO5" s="8">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="CP5" s="8">
         <v>0</v>
@@ -2291,25 +2298,25 @@
     </row>
     <row r="6" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>2646</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1731</v>
+        <v>298</v>
+      </c>
+      <c r="D6" s="8">
+        <v>198</v>
       </c>
       <c r="E6" s="8">
-        <v>915</v>
+        <v>100</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
@@ -2318,223 +2325,223 @@
         <v>0</v>
       </c>
       <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>7</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>3</v>
+      </c>
+      <c r="S6" s="8">
+        <v>1</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <v>7</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>10</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="8">
+        <v>4</v>
+      </c>
+      <c r="BM6" s="8">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="8">
         <v>5</v>
       </c>
-      <c r="K6" s="8">
-        <v>25</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
+      <c r="BS6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="8">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="8">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="8">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="8">
         <v>5</v>
       </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
-        <v>5</v>
-      </c>
-      <c r="S6" s="8">
-        <v>0</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0</v>
-      </c>
-      <c r="U6" s="8">
-        <v>230</v>
-      </c>
-      <c r="V6" s="8">
-        <v>0</v>
-      </c>
-      <c r="W6" s="8">
-        <v>4</v>
-      </c>
-      <c r="X6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>25</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="9">
-        <v>50</v>
-      </c>
-      <c r="AK6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AM6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AQ6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="8">
-        <v>15</v>
-      </c>
-      <c r="AU6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AW6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="8">
-        <v>8</v>
-      </c>
-      <c r="BB6" s="8">
-        <v>3</v>
-      </c>
-      <c r="BC6" s="8">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="8">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BG6" s="8">
-        <v>3</v>
-      </c>
-      <c r="BH6" s="8">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BK6" s="8">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="8">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="8">
-        <v>100</v>
-      </c>
-      <c r="BO6" s="8">
-        <v>10</v>
-      </c>
-      <c r="BP6" s="8">
-        <v>25</v>
-      </c>
-      <c r="BQ6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BR6" s="8">
-        <v>100</v>
-      </c>
-      <c r="BS6" s="8">
-        <v>40</v>
-      </c>
-      <c r="BT6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BU6" s="8">
-        <v>250</v>
-      </c>
-      <c r="BV6" s="8">
-        <v>100</v>
-      </c>
-      <c r="BW6" s="8">
-        <v>50</v>
-      </c>
-      <c r="BX6" s="8">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="8">
-        <v>1</v>
-      </c>
-      <c r="BZ6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CA6" s="8">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="8">
-        <v>15</v>
-      </c>
       <c r="CC6" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CD6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE6" s="8">
         <v>0</v>
@@ -2543,16 +2550,16 @@
         <v>0</v>
       </c>
       <c r="CG6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI6" s="8">
         <v>0</v>
       </c>
       <c r="CJ6" s="8">
-        <v>-60000</v>
+        <v>0</v>
       </c>
       <c r="CK6" s="8">
         <v>0</v>
@@ -2561,13 +2568,13 @@
         <v>0</v>
       </c>
       <c r="CM6" s="8">
-        <v>45000</v>
-      </c>
-      <c r="CN6" s="7">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="8">
         <v>0</v>
       </c>
       <c r="CO6" s="8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="CP6" s="8">
         <v>0</v>
@@ -2583,295 +2590,588 @@
       </c>
     </row>
     <row r="7" spans="1:97" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2646</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1731</v>
+      </c>
+      <c r="E7" s="8">
+        <v>915</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>5</v>
+      </c>
+      <c r="K7" s="8">
+        <v>25</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>5</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>5</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>230</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>4</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>50</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>5</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>5</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="8">
+        <v>15</v>
+      </c>
+      <c r="AU7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="8">
+        <v>5</v>
+      </c>
+      <c r="AW7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="8">
+        <v>8</v>
+      </c>
+      <c r="BB7" s="8">
+        <v>3</v>
+      </c>
+      <c r="BC7" s="8">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="8">
+        <v>5</v>
+      </c>
+      <c r="BG7" s="8">
+        <v>3</v>
+      </c>
+      <c r="BH7" s="8">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="8">
+        <v>5</v>
+      </c>
+      <c r="BK7" s="8">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="8">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="8">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="8">
+        <v>100</v>
+      </c>
+      <c r="BO7" s="8">
+        <v>10</v>
+      </c>
+      <c r="BP7" s="8">
+        <v>25</v>
+      </c>
+      <c r="BQ7" s="8">
+        <v>5</v>
+      </c>
+      <c r="BR7" s="8">
+        <v>100</v>
+      </c>
+      <c r="BS7" s="8">
+        <v>40</v>
+      </c>
+      <c r="BT7" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU7" s="8">
+        <v>250</v>
+      </c>
+      <c r="BV7" s="8">
+        <v>100</v>
+      </c>
+      <c r="BW7" s="8">
+        <v>50</v>
+      </c>
+      <c r="BX7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="8">
+        <v>5</v>
+      </c>
+      <c r="CA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="8">
+        <v>15</v>
+      </c>
+      <c r="CC7" s="8">
+        <v>5</v>
+      </c>
+      <c r="CD7" s="8">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="8">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="8">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="8">
+        <v>1</v>
+      </c>
+      <c r="CH7" s="8">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="8">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="8">
+        <v>-60000</v>
+      </c>
+      <c r="CK7" s="8">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="8">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="8">
+        <v>45000</v>
+      </c>
+      <c r="CN7" s="7">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="CP7" s="8">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="8">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="8">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="7">
         <v>1739</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="12">
         <v>1056</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>683</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
         <v>32</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I8" s="12">
         <v>4</v>
       </c>
-      <c r="J7" s="14">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
         <v>4</v>
       </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>0</v>
-      </c>
-      <c r="R7" s="12">
-        <v>0</v>
-      </c>
-      <c r="S7" s="12">
-        <v>1</v>
-      </c>
-      <c r="T7" s="14">
-        <v>0</v>
-      </c>
-      <c r="U7" s="12">
-        <v>0</v>
-      </c>
-      <c r="V7" s="12">
-        <v>0</v>
-      </c>
-      <c r="W7" s="12">
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>1</v>
+      </c>
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
         <v>12</v>
       </c>
-      <c r="X7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="12">
+      <c r="X8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="12">
         <v>12</v>
       </c>
-      <c r="AA7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="12">
+      <c r="AA8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="12">
         <v>4</v>
       </c>
-      <c r="AC7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="12">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="12">
+      <c r="AC8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="12">
         <v>7</v>
       </c>
-      <c r="AN7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="12">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="12">
+      <c r="AN8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="12">
         <v>15</v>
       </c>
-      <c r="AU7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="12">
+      <c r="AU8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="12">
         <v>6</v>
       </c>
-      <c r="AW7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="12">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="12">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="12">
+      <c r="AW8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="12">
         <v>4</v>
       </c>
-      <c r="BC7" s="12">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="12">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="12">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="12">
+      <c r="BC8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="12">
         <v>3</v>
       </c>
-      <c r="BH7" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="12">
+      <c r="BH8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="13">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="12">
         <v>15</v>
       </c>
-      <c r="BL7" s="12">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="12">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="12">
+      <c r="BL8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="12">
         <v>40</v>
       </c>
-      <c r="BO7" s="12">
+      <c r="BO8" s="12">
         <v>6</v>
       </c>
-      <c r="BP7" s="12">
+      <c r="BP8" s="12">
         <v>10</v>
       </c>
-      <c r="BQ7" s="12">
+      <c r="BQ8" s="12">
         <v>3</v>
       </c>
-      <c r="BR7" s="12">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="12">
+      <c r="BR8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="12">
         <v>50</v>
       </c>
-      <c r="BT7" s="12">
+      <c r="BT8" s="12">
         <v>5</v>
       </c>
-      <c r="BU7" s="12">
+      <c r="BU8" s="12">
         <v>100</v>
       </c>
-      <c r="BV7" s="12">
+      <c r="BV8" s="12">
         <v>15</v>
       </c>
-      <c r="BW7" s="12">
+      <c r="BW8" s="12">
         <v>25</v>
       </c>
-      <c r="BX7" s="12">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="12">
+      <c r="BX8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="12">
         <v>5</v>
       </c>
-      <c r="BZ7" s="12">
+      <c r="BZ8" s="12">
         <v>4</v>
       </c>
-      <c r="CA7" s="12">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="12">
+      <c r="CA8" s="12">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="12">
         <v>12</v>
       </c>
-      <c r="CC7" s="12">
+      <c r="CC8" s="12">
         <v>2</v>
       </c>
-      <c r="CD7" s="12">
-        <v>1</v>
-      </c>
-      <c r="CE7" s="12">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="12">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="12">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="12">
+      <c r="CD8" s="12">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="12">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="12">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="12">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="12">
         <v>2</v>
       </c>
-      <c r="CI7" s="12">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="15">
+      <c r="CI8" s="12">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="15">
         <v>-10000</v>
       </c>
-      <c r="CK7" s="15">
+      <c r="CK8" s="15">
         <v>-20000</v>
       </c>
-      <c r="CL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="15">
+      <c r="CL8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="15">
         <v>20000</v>
       </c>
-      <c r="CP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="16">
+      <c r="CP8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="16">
         <v>0</v>
       </c>
     </row>
